--- a/notebooks/COQ4/input/COQ4_SPAX10_individuals.xlsx
+++ b/notebooks/COQ4/input/COQ4_SPAX10_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/COQ4/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7F978-053A-894F-87A3-93BC80AFF515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD253D4-3845-984D-9BBA-C701B6B88B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="7100" windowWidth="56920" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5860" yWindow="3260" windowWidth="38400" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -902,12 +902,13 @@
   <dimension ref="A1:AP18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="74.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
